--- a/1.Doc/にゃんはおカルク/nianghaoCalc_FD.xlsx
+++ b/1.Doc/にゃんはおカルク/nianghaoCalc_FD.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="開発環境" sheetId="3" r:id="rId1"/>
     <sheet name="画面" sheetId="1" r:id="rId2"/>
-    <sheet name="分担" sheetId="2" r:id="rId3"/>
+    <sheet name="画面 (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="分担" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -73,8 +75,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="AH42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+          </rPr>
+          <t>30分に1オーダという意味</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+          </rPr>
+          <t>これはチャージから60分の料金をひく設定</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+          </rPr>
+          <t>bool型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+          </rPr>
+          <t>bool型</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>ポテト</t>
   </si>
@@ -92,13 +152,35 @@
     <t>Header</t>
   </si>
   <si>
+    <t>ｵｰﾀﾞﾁｪｯｸ</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
     <t>クリア</t>
   </si>
   <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>ｵｰﾀﾞﾁｪｯｸ</t>
+    <t>Button(onClickでカレンダー）</t>
+  </si>
+  <si>
+    <t>管理メニューは廃止し、右上のメニューから遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>かんり</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>はいし</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>みぎうえ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>せんい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>チャージ</t>
   </si>
   <si>
     <t>追加</t>
@@ -108,28 +190,6 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>チャージ</t>
-  </si>
-  <si>
-    <t>管理メニューは廃止し、右上のメニューから遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>かんり</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>はいし</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>みぎうえ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>せんい</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>Button(onClickでカレンダー）</t>
-  </si>
-  <si>
     <t>NyanghaoCalc</t>
   </si>
   <si>
@@ -324,6 +384,9 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
+    <t>EditText</t>
+  </si>
+  <si>
     <t>2400</t>
   </si>
   <si>
@@ -684,6 +747,13 @@
     <t>→</t>
   </si>
   <si>
+    <t>お預かり</t>
+    <rPh sb="1" eb="2">
+      <t>あず</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
     <t>TextView(number)</t>
   </si>
   <si>
@@ -747,6 +817,9 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
+    <t>ReciclerView</t>
+  </si>
+  <si>
     <t>初期は追加</t>
     <rPh sb="0" eb="2">
       <t>しょき</t>
@@ -971,6 +1044,126 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>きょうゆう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>テストオミット</t>
+  </si>
+  <si>
+    <t>Top画面</t>
+    <rPh sb="3" eb="5">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>○○さん　０１：３０　２,９００</t>
+  </si>
+  <si>
+    <t>△△さん　０２：３０　３,１５０</t>
+  </si>
+  <si>
+    <t>会計確定</t>
+    <rPh sb="0" eb="2">
+      <t>かいけい</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>かくてい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>LinerLayout</t>
+  </si>
+  <si>
+    <t>ClearButton</t>
+  </si>
+  <si>
+    <t>・ｵｰﾀﾞﾁｪｯｸして問題なければメイン画面のリサイクルビューに追加</t>
+  </si>
+  <si>
+    <t>DeleteButton</t>
+  </si>
+  <si>
+    <t>CommitButton</t>
+  </si>
+  <si>
+    <t>削除ボタンクリックで行削除</t>
+    <rPh sb="0" eb="2">
+      <t>さくじょ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ぎょう</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>さくじょ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>右下「＋」で入力画面「新規モード」で起動</t>
+    <rPh sb="0" eb="2">
+      <t>みぎした</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>にゅうり</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>しんき</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>き</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>行クリックで入力画面「編集モード」で起動</t>
+    <rPh sb="0" eb="1">
+      <t>ぎょう</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>にゅうりょく</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>がめん</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>へんしゅう</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>きどう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>お釣り</t>
+    <rPh sb="1" eb="2">
+      <t>つ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>設定はリソースで管理</t>
+    <rPh sb="0" eb="2">
+      <t>せってい</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>かんり</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>システム設定xml イメージ</t>
+    <rPh sb="4" eb="6">
+      <t>せってい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>商品xmlイメージ</t>
+    <rPh sb="0" eb="2">
+      <t>しょうひん</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -997,7 +1190,7 @@
       <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,8 +1227,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-5.e-002"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1305,13 +1504,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1574,6 +1791,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2200,6 +2456,404 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>175895</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>43180</xdr:rowOff>
+        </xdr:from>
+        <xdr:to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <xdr:col>35</xdr:col>
+          <xdr:colOff>174625</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>204470</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="オブジェクト 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6415405" y="17562830"/>
+              <a:ext cx="182245" cy="161290"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <xdr:col>35</xdr:col>
+          <xdr:colOff>6985</xdr:colOff>
+          <xdr:row>107</xdr:row>
+          <xdr:rowOff>26035</xdr:rowOff>
+        </xdr:from>
+        <xdr:to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <xdr:col>35</xdr:col>
+          <xdr:colOff>180340</xdr:colOff>
+          <xdr:row>107</xdr:row>
+          <xdr:rowOff>197485</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3075" name="オブジェクト 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6430010" y="17774285"/>
+              <a:ext cx="173355" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <xdr:col>35</xdr:col>
+          <xdr:colOff>6985</xdr:colOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>26035</xdr:rowOff>
+        </xdr:from>
+        <xdr:to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <xdr:col>35</xdr:col>
+          <xdr:colOff>180340</xdr:colOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>197485</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3076" name="オブジェクト 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6430010" y="18002885"/>
+              <a:ext cx="173355" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <xdr:col>35</xdr:col>
+          <xdr:colOff>6985</xdr:colOff>
+          <xdr:row>109</xdr:row>
+          <xdr:rowOff>26035</xdr:rowOff>
+        </xdr:from>
+        <xdr:to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <xdr:col>35</xdr:col>
+          <xdr:colOff>180340</xdr:colOff>
+          <xdr:row>109</xdr:row>
+          <xdr:rowOff>197485</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3077" name="オブジェクト 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6430010" y="18231485"/>
+              <a:ext cx="173355" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>14605</xdr:colOff>
+          <xdr:row>124</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>4445</xdr:colOff>
+          <xdr:row>125</xdr:row>
+          <xdr:rowOff>5715</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3078" name="オブジェクト 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1299210" y="20745450"/>
+              <a:ext cx="173355" cy="170815"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10827385" y="10575925"/>
+          <a:ext cx="4587875" cy="6861810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12387580" y="11713210"/>
+          <a:ext cx="2458720" cy="287655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>128270</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12423775" y="12071350"/>
+          <a:ext cx="2404110" cy="281305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>183515</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="図形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="5448300"/>
+          <a:ext cx="550545" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:latin typeface="メイリオ"/>
+            <a:ea typeface="メイリオ"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Calc">
   <a:themeElements>
@@ -2497,17 +3151,17 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="Hiragana"/>
-  <pageMargins left="0.78740157480314943" right="0.78740157480314943" top="0.98425196850393692" bottom="0.98425196850393692" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.78740157480314943" right="0.78740157480314943" top="0.98425196850393681" bottom="0.98425196850393681" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2517,8 +3171,8 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="B2:CA197"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM61" sqref="AM61"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BX12" sqref="AO12:CA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2556,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="AO4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:79">
@@ -2579,7 +3233,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="AO5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:79">
@@ -2608,7 +3262,7 @@
     </row>
     <row r="7" spans="2:79">
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2619,7 +3273,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2680,7 +3334,7 @@
         <v>32</v>
       </c>
       <c r="AA9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:79">
@@ -2720,14 +3374,14 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S11" s="64"/>
       <c r="V11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:79">
@@ -2770,7 +3424,7 @@
       <c r="AV12" s="31"/>
       <c r="AW12" s="31"/>
       <c r="AX12" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AY12" s="31"/>
       <c r="AZ12" s="31"/>
@@ -2778,13 +3432,13 @@
       <c r="BB12" s="31"/>
       <c r="BC12" s="41"/>
       <c r="BD12" s="54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BE12" s="54"/>
       <c r="BF12" s="54"/>
       <c r="BG12" s="54"/>
       <c r="BH12" s="68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BI12" s="71"/>
       <c r="BJ12" s="71"/>
@@ -2800,13 +3454,13 @@
       <c r="BR12" s="54"/>
       <c r="BS12" s="54"/>
       <c r="BT12" s="54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BU12" s="54"/>
       <c r="BV12" s="54"/>
       <c r="BW12" s="54"/>
       <c r="BX12" s="54" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BY12" s="54"/>
       <c r="BZ12" s="54"/>
@@ -2822,7 +3476,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
@@ -2852,7 +3506,7 @@
       </c>
       <c r="AS13" s="85"/>
       <c r="AT13" s="86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU13" s="86"/>
       <c r="AV13" s="86"/>
@@ -2932,7 +3586,7 @@
       <c r="AV14" s="86"/>
       <c r="AW14" s="86"/>
       <c r="AX14" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AY14" s="86"/>
       <c r="AZ14" s="86"/>
@@ -2940,7 +3594,7 @@
       <c r="BB14" s="86"/>
       <c r="BC14" s="85"/>
       <c r="BD14" s="55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BE14" s="55"/>
       <c r="BF14" s="55"/>
@@ -2995,7 +3649,7 @@
       <c r="R15" s="60"/>
       <c r="S15" s="64"/>
       <c r="V15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO15" s="77">
         <v>3</v>
@@ -3007,7 +3661,7 @@
       </c>
       <c r="AS15" s="51"/>
       <c r="AT15" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU15" s="32"/>
       <c r="AV15" s="32"/>
@@ -3093,7 +3747,7 @@
       <c r="AV16" s="32"/>
       <c r="AW16" s="32"/>
       <c r="AX16" s="44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AY16" s="32"/>
       <c r="AZ16" s="32"/>
@@ -3101,13 +3755,13 @@
       <c r="BB16" s="32"/>
       <c r="BC16" s="51"/>
       <c r="BD16" s="55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BE16" s="55"/>
       <c r="BF16" s="55"/>
       <c r="BG16" s="55"/>
       <c r="BH16" s="69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BI16" s="72"/>
       <c r="BJ16" s="72"/>
@@ -3156,7 +3810,7 @@
       <c r="R17" s="60"/>
       <c r="S17" s="63"/>
       <c r="V17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:71">
@@ -3210,7 +3864,7 @@
       </c>
       <c r="O20" s="19"/>
       <c r="P20" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="60"/>
@@ -3219,7 +3873,7 @@
         <v>27</v>
       </c>
       <c r="AO20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:71">
@@ -3241,7 +3895,7 @@
       <c r="R21" s="60"/>
       <c r="S21" s="63"/>
       <c r="V21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO21" s="75" t="s">
         <v>36</v>
@@ -3249,7 +3903,7 @@
       <c r="AP21" s="75"/>
       <c r="AQ21" s="75"/>
       <c r="AR21" s="54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AS21" s="54"/>
       <c r="AT21" s="54"/>
@@ -3265,7 +3919,7 @@
       <c r="BB21" s="54"/>
       <c r="BC21" s="54"/>
       <c r="BD21" s="54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BE21" s="54"/>
       <c r="BF21" s="54"/>
@@ -3273,7 +3927,7 @@
       <c r="BH21" s="54"/>
       <c r="BI21" s="54"/>
       <c r="BJ21" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BK21" s="54"/>
       <c r="BL21" s="54"/>
@@ -3281,7 +3935,7 @@
       <c r="BN21" s="54"/>
       <c r="BO21" s="54"/>
       <c r="BP21" s="54" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BQ21" s="54"/>
       <c r="BR21" s="54"/>
@@ -3300,7 +3954,7 @@
       <c r="AP22" s="77"/>
       <c r="AQ22" s="77"/>
       <c r="AR22" s="84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AS22" s="84"/>
       <c r="AT22" s="84"/>
@@ -3346,7 +4000,7 @@
       <c r="AP23" s="77"/>
       <c r="AQ23" s="77"/>
       <c r="AR23" s="84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AS23" s="84"/>
       <c r="AT23" s="84"/>
@@ -3392,7 +4046,7 @@
       <c r="AP24" s="77"/>
       <c r="AQ24" s="77"/>
       <c r="AR24" s="84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS24" s="84"/>
       <c r="AT24" s="84"/>
@@ -3431,7 +4085,7 @@
     <row r="25" spans="2:71">
       <c r="B25" s="5"/>
       <c r="D25" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
@@ -3447,16 +4101,16 @@
       </c>
       <c r="O25" s="52"/>
       <c r="P25" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="60"/>
       <c r="S25" s="64"/>
       <c r="V25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO25" s="77">
         <v>4</v>
@@ -3464,7 +4118,7 @@
       <c r="AP25" s="77"/>
       <c r="AQ25" s="77"/>
       <c r="AR25" s="84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS25" s="84"/>
       <c r="AT25" s="84"/>
@@ -3527,7 +4181,7 @@
       <c r="AP26" s="77"/>
       <c r="AQ26" s="77"/>
       <c r="AR26" s="84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AS26" s="84"/>
       <c r="AT26" s="84"/>
@@ -3582,7 +4236,7 @@
       </c>
       <c r="O27" s="52"/>
       <c r="P27" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="60"/>
@@ -3596,7 +4250,7 @@
       <c r="AP27" s="77"/>
       <c r="AQ27" s="77"/>
       <c r="AR27" s="84" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AS27" s="84"/>
       <c r="AT27" s="84"/>
@@ -3651,7 +4305,7 @@
       <c r="R28" s="60"/>
       <c r="S28" s="64"/>
       <c r="V28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO28" s="77">
         <v>7</v>
@@ -3659,7 +4313,7 @@
       <c r="AP28" s="77"/>
       <c r="AQ28" s="77"/>
       <c r="AR28" s="84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AS28" s="84"/>
       <c r="AT28" s="84"/>
@@ -3698,7 +4352,7 @@
     <row r="29" spans="2:71">
       <c r="B29" s="5"/>
       <c r="D29" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -3714,7 +4368,7 @@
       </c>
       <c r="O29" s="52"/>
       <c r="P29" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="60"/>
@@ -3725,7 +4379,7 @@
       <c r="AP29" s="77"/>
       <c r="AQ29" s="77"/>
       <c r="AR29" s="84" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AS29" s="84"/>
       <c r="AT29" s="84"/>
@@ -3799,7 +4453,7 @@
       </c>
       <c r="O31" s="52"/>
       <c r="P31" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="60"/>
@@ -3843,7 +4497,7 @@
       </c>
       <c r="O33" s="52"/>
       <c r="P33" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="60"/>
@@ -3877,7 +4531,7 @@
     <row r="36" spans="2:33">
       <c r="B36" s="5"/>
       <c r="D36" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3918,7 +4572,7 @@
       <c r="Q37" s="3"/>
       <c r="S37" s="64"/>
       <c r="AG37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:33" ht="13.75">
@@ -3941,17 +4595,17 @@
       <c r="R38" s="9"/>
       <c r="S38" s="65"/>
       <c r="AG38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:33">
       <c r="AG39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="2:33">
       <c r="B44" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="2:33">
@@ -4019,7 +4673,7 @@
     <row r="48" spans="2:33">
       <c r="B48" s="5"/>
       <c r="D48" s="24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
@@ -4036,7 +4690,7 @@
       <c r="Q48" s="56"/>
       <c r="S48" s="64"/>
       <c r="W48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:23">
@@ -4136,7 +4790,7 @@
     <row r="54" spans="2:23">
       <c r="B54" s="4"/>
       <c r="D54" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -4198,7 +4852,7 @@
       <c r="N58" s="26"/>
       <c r="O58" s="26"/>
       <c r="P58" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q58" s="26"/>
       <c r="S58" s="63"/>
@@ -4232,7 +4886,7 @@
     <row r="62" spans="2:23">
       <c r="B62" s="5"/>
       <c r="D62" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E62" s="39"/>
       <c r="F62" s="39"/>
@@ -4251,7 +4905,7 @@
       <c r="Q62" s="45"/>
       <c r="S62" s="63"/>
       <c r="W62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="2:23">
@@ -4272,7 +4926,7 @@
       <c r="Q63" s="46"/>
       <c r="S63" s="63"/>
       <c r="W63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="2:23">
@@ -4357,15 +5011,15 @@
     </row>
     <row r="81" spans="2:62">
       <c r="BJ81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="2:62">
       <c r="B82" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AM82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="2:62">
@@ -4495,7 +5149,7 @@
     <row r="87" spans="2:62">
       <c r="B87" s="5"/>
       <c r="C87" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="29"/>
@@ -4577,7 +5231,7 @@
     <row r="90" spans="2:62">
       <c r="B90" s="5"/>
       <c r="C90" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
@@ -4597,7 +5251,7 @@
       <c r="S90" s="64"/>
       <c r="AM90" s="5"/>
       <c r="AO90" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AT90" s="42"/>
       <c r="AU90" s="42"/>
@@ -4637,7 +5291,7 @@
       <c r="S92" s="63"/>
       <c r="AM92" s="4"/>
       <c r="AO92" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AT92" s="42"/>
       <c r="AU92" s="42"/>
@@ -4665,7 +5319,7 @@
     <row r="95" spans="2:62">
       <c r="B95" s="5"/>
       <c r="C95" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
@@ -4684,7 +5338,7 @@
       <c r="R95" s="61"/>
       <c r="S95" s="63"/>
       <c r="U95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM95" s="5"/>
       <c r="BD95" s="63"/>
@@ -4709,7 +5363,7 @@
       <c r="R96" s="62"/>
       <c r="S96" s="63"/>
       <c r="U96" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AM96" s="5"/>
       <c r="BD96" s="63"/>
@@ -4729,7 +5383,7 @@
     <row r="99" spans="2:56">
       <c r="B99" s="5"/>
       <c r="C99" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
@@ -4874,7 +5528,7 @@
         <v>14</v>
       </c>
       <c r="Y114" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AM114" s="5"/>
       <c r="AN114" s="13" t="s">
@@ -4915,7 +5569,7 @@
       <c r="Q115" s="13"/>
       <c r="S115" s="64"/>
       <c r="Y115" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM115" s="5"/>
       <c r="AN115" s="13"/>
@@ -4981,7 +5635,7 @@
     </row>
     <row r="119" spans="2:56">
       <c r="B119" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="2:56">
@@ -5061,7 +5715,7 @@
       <c r="G124" s="31"/>
       <c r="H124" s="41"/>
       <c r="I124" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J124" s="31"/>
       <c r="K124" s="31"/>
@@ -5069,13 +5723,13 @@
       <c r="M124" s="31"/>
       <c r="N124" s="41"/>
       <c r="O124" s="54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P124" s="54"/>
       <c r="Q124" s="54"/>
       <c r="R124" s="54"/>
       <c r="S124" s="68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T124" s="71"/>
       <c r="U124" s="71"/>
@@ -5091,18 +5745,18 @@
       <c r="AC124" s="54"/>
       <c r="AD124" s="54"/>
       <c r="AE124" s="54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF124" s="54"/>
       <c r="AG124" s="54"/>
       <c r="AH124" s="54"/>
       <c r="AI124" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ124" s="31"/>
       <c r="AK124" s="41"/>
       <c r="AL124" s="58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="2:56" ht="18" customHeight="1">
@@ -5112,7 +5766,7 @@
       </c>
       <c r="D125" s="32"/>
       <c r="E125" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F125" s="32"/>
       <c r="G125" s="32"/>
@@ -5158,7 +5812,7 @@
       <c r="AK125" s="81"/>
       <c r="AL125" s="60"/>
       <c r="AO125" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="2:56" ht="18" customHeight="1">
@@ -5174,7 +5828,7 @@
       <c r="G126" s="32"/>
       <c r="H126" s="32"/>
       <c r="I126" s="44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J126" s="32"/>
       <c r="K126" s="32"/>
@@ -5182,7 +5836,7 @@
       <c r="M126" s="32"/>
       <c r="N126" s="51"/>
       <c r="O126" s="55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P126" s="55"/>
       <c r="Q126" s="55"/>
@@ -5221,7 +5875,7 @@
       </c>
       <c r="D127" s="32"/>
       <c r="E127" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F127" s="32"/>
       <c r="G127" s="32"/>
@@ -5280,7 +5934,7 @@
       <c r="G128" s="32"/>
       <c r="H128" s="32"/>
       <c r="I128" s="44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J128" s="32"/>
       <c r="K128" s="32"/>
@@ -5288,13 +5942,13 @@
       <c r="M128" s="32"/>
       <c r="N128" s="51"/>
       <c r="O128" s="55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P128" s="55"/>
       <c r="Q128" s="55"/>
       <c r="R128" s="55"/>
       <c r="S128" s="69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T128" s="72"/>
       <c r="U128" s="72"/>
@@ -5323,7 +5977,7 @@
     <row r="129" spans="2:38">
       <c r="B129" s="4"/>
       <c r="C129" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="32"/>
@@ -5359,7 +6013,7 @@
       <c r="AI129" s="32"/>
       <c r="AJ129" s="51"/>
       <c r="AK129" s="82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL129" s="58" t="s">
         <v>22</v>
@@ -5396,7 +6050,7 @@
     <row r="133" spans="2:38">
       <c r="B133" s="5"/>
       <c r="C133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H133" s="42"/>
       <c r="I133" s="42"/>
@@ -5410,7 +6064,7 @@
       <c r="Q133" s="42"/>
       <c r="S133" s="64"/>
       <c r="U133" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="2:38">
@@ -5420,7 +6074,7 @@
     <row r="135" spans="2:38">
       <c r="B135" s="5"/>
       <c r="C135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H135" s="42"/>
       <c r="I135" s="42"/>
@@ -5434,7 +6088,7 @@
       <c r="Q135" s="42"/>
       <c r="S135" s="64"/>
       <c r="U135" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="2:38">
@@ -5444,7 +6098,7 @@
     <row r="137" spans="2:38">
       <c r="B137" s="5"/>
       <c r="C137" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H137" s="42"/>
       <c r="I137" s="42"/>
@@ -5458,7 +6112,7 @@
       <c r="Q137" s="42"/>
       <c r="S137" s="64"/>
       <c r="U137" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="2:38">
@@ -5468,7 +6122,7 @@
     <row r="139" spans="2:38">
       <c r="B139" s="5"/>
       <c r="C139" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H139" s="42"/>
       <c r="I139" s="42"/>
@@ -5482,7 +6136,7 @@
       <c r="Q139" s="42"/>
       <c r="S139" s="64"/>
       <c r="U139" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="140" spans="2:38">
@@ -5492,7 +6146,7 @@
     <row r="141" spans="2:38">
       <c r="B141" s="5"/>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H141" s="42"/>
       <c r="I141" s="42"/>
@@ -5506,7 +6160,7 @@
       <c r="Q141" s="42"/>
       <c r="S141" s="64"/>
       <c r="U141" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="2:38">
@@ -5516,11 +6170,11 @@
     <row r="143" spans="2:38">
       <c r="B143" s="5"/>
       <c r="C143" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S143" s="64"/>
       <c r="U143" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="2:38">
@@ -5551,7 +6205,7 @@
         <v>14</v>
       </c>
       <c r="AE145" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="2:31">
@@ -5573,14 +6227,14 @@
       <c r="Q146" s="13"/>
       <c r="S146" s="63"/>
       <c r="AE146" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="147" spans="2:31">
       <c r="B147" s="5"/>
       <c r="S147" s="63"/>
       <c r="AE147" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="2:31">
@@ -5635,7 +6289,7 @@
         <v>14</v>
       </c>
       <c r="Y155" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="2:31">
@@ -5657,7 +6311,7 @@
       <c r="Q156" s="13"/>
       <c r="S156" s="64"/>
       <c r="Y156" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157" spans="2:31">
@@ -5748,7 +6402,7 @@
     </row>
     <row r="166" spans="2:53">
       <c r="B166" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -5759,7 +6413,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
@@ -5770,7 +6424,7 @@
       <c r="R166" s="3"/>
       <c r="S166" s="3"/>
       <c r="AC166" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="167" spans="2:53">
@@ -5813,7 +6467,7 @@
       <c r="Q168" s="17"/>
       <c r="S168" s="64"/>
       <c r="AC168" s="75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AD168" s="75"/>
       <c r="AE168" s="75"/>
@@ -5827,21 +6481,21 @@
       <c r="AK168" s="75"/>
       <c r="AL168" s="75"/>
       <c r="AM168" s="75" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AN168" s="75"/>
       <c r="AO168" s="75"/>
       <c r="AP168" s="75"/>
       <c r="AQ168" s="75"/>
       <c r="AR168" s="75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AS168" s="75"/>
       <c r="AT168" s="75"/>
       <c r="AU168" s="75"/>
       <c r="AV168" s="75"/>
       <c r="AW168" s="75" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AX168" s="75"/>
       <c r="AY168" s="75"/>
@@ -5887,7 +6541,7 @@
       <c r="AP169" s="77"/>
       <c r="AQ169" s="77"/>
       <c r="AR169" s="78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AS169" s="77"/>
       <c r="AT169" s="77"/>
@@ -5920,7 +6574,7 @@
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
       <c r="R170" s="58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S170" s="64"/>
     </row>
@@ -5954,7 +6608,7 @@
       <c r="G172" s="19"/>
       <c r="H172" s="19"/>
       <c r="I172" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J172" s="19"/>
       <c r="K172" s="19"/>
@@ -6099,7 +6753,7 @@
       </c>
       <c r="O179" s="19"/>
       <c r="P179" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q179" s="3"/>
       <c r="R179" s="60"/>
@@ -6142,7 +6796,7 @@
     <row r="184" spans="2:19">
       <c r="B184" s="5"/>
       <c r="D184" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E184" s="35"/>
       <c r="F184" s="35"/>
@@ -6158,7 +6812,7 @@
       </c>
       <c r="O184" s="52"/>
       <c r="P184" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q184" s="3"/>
       <c r="R184" s="60"/>
@@ -6202,7 +6856,7 @@
       </c>
       <c r="O186" s="52"/>
       <c r="P186" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q186" s="3"/>
       <c r="R186" s="60"/>
@@ -6230,7 +6884,7 @@
     <row r="188" spans="2:19">
       <c r="B188" s="5"/>
       <c r="D188" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E188" s="35"/>
       <c r="F188" s="35"/>
@@ -6246,7 +6900,7 @@
       </c>
       <c r="O188" s="52"/>
       <c r="P188" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q188" s="3"/>
       <c r="R188" s="60"/>
@@ -6290,7 +6944,7 @@
       </c>
       <c r="O190" s="52"/>
       <c r="P190" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q190" s="3"/>
       <c r="R190" s="60"/>
@@ -6334,7 +6988,7 @@
       </c>
       <c r="O192" s="52"/>
       <c r="P192" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q192" s="3"/>
       <c r="R192" s="60"/>
@@ -6368,7 +7022,7 @@
     <row r="195" spans="2:19">
       <c r="B195" s="5"/>
       <c r="D195" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
@@ -6634,7 +7288,7 @@
     <mergeCell ref="D195:Q196"/>
   </mergeCells>
   <phoneticPr fontId="1" type="Hiragana"/>
-  <pageMargins left="0.78740157480314943" right="0.78740157480314943" top="0.98425196850393692" bottom="0.98425196850393692" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.78740157480314943" right="0.78740157480314943" top="0.98425196850393681" bottom="0.98425196850393681" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -6770,9 +7424,4301 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B2:BQ179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP28" sqref="AP28:AY29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="16372" width="2.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:60">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:60">
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="66"/>
+      <c r="AN3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="66"/>
+    </row>
+    <row r="4" spans="2:60">
+      <c r="B4" s="8"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="67"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="67"/>
+    </row>
+    <row r="5" spans="2:60">
+      <c r="B5" s="8"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="67"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="67"/>
+    </row>
+    <row r="6" spans="2:60">
+      <c r="B6" s="5"/>
+      <c r="S6" s="64"/>
+      <c r="AN6" s="5"/>
+      <c r="BE6" s="64"/>
+    </row>
+    <row r="7" spans="2:60">
+      <c r="B7" s="5"/>
+      <c r="D7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="56"/>
+      <c r="S7" s="64"/>
+      <c r="V7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN7" s="5"/>
+      <c r="BE7" s="64"/>
+    </row>
+    <row r="8" spans="2:60">
+      <c r="B8" s="5"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="57"/>
+      <c r="S8" s="64"/>
+      <c r="W8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN8" s="5"/>
+      <c r="AP8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="17"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="17"/>
+      <c r="BE8" s="64"/>
+      <c r="BH8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:60">
+      <c r="B9" s="5"/>
+      <c r="S9" s="64"/>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN9" s="5"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
+      <c r="BE9" s="64"/>
+    </row>
+    <row r="10" spans="2:60">
+      <c r="B10" s="5"/>
+      <c r="D10" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="64"/>
+      <c r="X10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="5"/>
+      <c r="AP10" s="18">
+        <v>44461</v>
+      </c>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BE10" s="64"/>
+      <c r="BH10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:60">
+      <c r="B11" s="5"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="64"/>
+      <c r="X11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN11" s="5"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BE11" s="64"/>
+    </row>
+    <row r="12" spans="2:60">
+      <c r="B12" s="4"/>
+      <c r="D12" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="63"/>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC12" s="19"/>
+      <c r="BE12" s="63"/>
+      <c r="BH12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:60">
+      <c r="B13" s="4"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="63"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" s="19"/>
+      <c r="BB13" s="19"/>
+      <c r="BC13" s="19"/>
+      <c r="BE13" s="63"/>
+      <c r="BH13" s="1"/>
+    </row>
+    <row r="14" spans="2:60">
+      <c r="B14" s="5"/>
+      <c r="D14" s="88"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="64"/>
+      <c r="AN14" s="5"/>
+      <c r="AP14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="43">
+        <v>0.82986111111111105</v>
+      </c>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BE14" s="64"/>
+      <c r="BH14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:60">
+      <c r="B15" s="5"/>
+      <c r="D15" s="88"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="63"/>
+      <c r="AN15" s="5"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BE15" s="63"/>
+    </row>
+    <row r="16" spans="2:60">
+      <c r="B16" s="5"/>
+      <c r="D16" s="88"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="63"/>
+      <c r="V16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN16" s="5"/>
+      <c r="AP16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="43">
+        <v>0.85763888888888895</v>
+      </c>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BE16" s="63"/>
+      <c r="BH16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:69">
+      <c r="B17" s="5"/>
+      <c r="D17" s="88"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="64"/>
+      <c r="V17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN17" s="5"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BE17" s="64"/>
+    </row>
+    <row r="18" spans="2:69">
+      <c r="B18" s="5"/>
+      <c r="D18" s="88"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="64"/>
+      <c r="V18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN18" s="5"/>
+      <c r="BE18" s="64"/>
+    </row>
+    <row r="19" spans="2:69">
+      <c r="B19" s="5"/>
+      <c r="D19" s="88"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="64"/>
+      <c r="AN19" s="5"/>
+      <c r="AP19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="33"/>
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="33"/>
+      <c r="AV19" s="33"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC19" s="3"/>
+      <c r="BE19" s="64"/>
+      <c r="BH19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:69">
+      <c r="B20" s="5"/>
+      <c r="D20" s="88"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="63"/>
+      <c r="AN20" s="5"/>
+      <c r="AP20" s="21"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="34"/>
+      <c r="AU20" s="34"/>
+      <c r="AV20" s="34"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BE20" s="63"/>
+    </row>
+    <row r="21" spans="2:69">
+      <c r="B21" s="5"/>
+      <c r="D21" s="88"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="63"/>
+      <c r="AN21" s="5"/>
+      <c r="BE21" s="63"/>
+    </row>
+    <row r="22" spans="2:69">
+      <c r="B22" s="5"/>
+      <c r="D22" s="88"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="64"/>
+      <c r="AN22" s="5"/>
+      <c r="BE22" s="64"/>
+    </row>
+    <row r="23" spans="2:69">
+      <c r="B23" s="5"/>
+      <c r="D23" s="88"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="64"/>
+      <c r="AN23" s="5"/>
+      <c r="BE23" s="64"/>
+    </row>
+    <row r="24" spans="2:69">
+      <c r="B24" s="5"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="64"/>
+      <c r="AN24" s="5"/>
+      <c r="AP24" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="35"/>
+      <c r="AS24" s="35"/>
+      <c r="AT24" s="35"/>
+      <c r="AU24" s="35"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="35"/>
+      <c r="AX24" s="35"/>
+      <c r="AY24" s="35"/>
+      <c r="AZ24" s="49">
+        <v>2</v>
+      </c>
+      <c r="BA24" s="52"/>
+      <c r="BB24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE24" s="64"/>
+      <c r="BG24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:69">
+      <c r="B25" s="5"/>
+      <c r="S25" s="63"/>
+      <c r="AN25" s="5"/>
+      <c r="AP25" s="23"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="36"/>
+      <c r="AT25" s="36"/>
+      <c r="AU25" s="36"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="36"/>
+      <c r="AX25" s="36"/>
+      <c r="AY25" s="36"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="53"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="60"/>
+      <c r="BE25" s="63"/>
+      <c r="BH25" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="2:69">
+      <c r="B26" s="5"/>
+      <c r="D26" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="92">
+        <v>6050</v>
+      </c>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="98"/>
+      <c r="S26" s="63"/>
+      <c r="V26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="5"/>
+      <c r="AP26" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="35"/>
+      <c r="AR26" s="35"/>
+      <c r="AS26" s="35"/>
+      <c r="AT26" s="35"/>
+      <c r="AU26" s="35"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="35"/>
+      <c r="AX26" s="35"/>
+      <c r="AY26" s="35"/>
+      <c r="AZ26" s="49">
+        <v>3</v>
+      </c>
+      <c r="BA26" s="52"/>
+      <c r="BB26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="60"/>
+      <c r="BE26" s="63"/>
+    </row>
+    <row r="27" spans="2:69">
+      <c r="B27" s="5"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="99"/>
+      <c r="S27" s="64"/>
+      <c r="AN27" s="5"/>
+      <c r="AP27" s="23"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="36"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="36"/>
+      <c r="AY27" s="36"/>
+      <c r="AZ27" s="50"/>
+      <c r="BA27" s="53"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="60"/>
+      <c r="BE27" s="64"/>
+      <c r="BH27" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="2:69">
+      <c r="B28" s="5"/>
+      <c r="D28" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="92">
+        <v>7000</v>
+      </c>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="98"/>
+      <c r="S28" s="64"/>
+      <c r="V28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN28" s="5"/>
+      <c r="AP28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ28" s="35"/>
+      <c r="AR28" s="35"/>
+      <c r="AS28" s="35"/>
+      <c r="AT28" s="35"/>
+      <c r="AU28" s="35"/>
+      <c r="AV28" s="35"/>
+      <c r="AW28" s="35"/>
+      <c r="AX28" s="35"/>
+      <c r="AY28" s="35"/>
+      <c r="AZ28" s="49">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="52"/>
+      <c r="BB28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="60"/>
+      <c r="BE28" s="64"/>
+    </row>
+    <row r="29" spans="2:69">
+      <c r="B29" s="5"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="99"/>
+      <c r="S29" s="64"/>
+      <c r="AN29" s="5"/>
+      <c r="AP29" s="23"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="36"/>
+      <c r="AU29" s="36"/>
+      <c r="AV29" s="36"/>
+      <c r="AW29" s="36"/>
+      <c r="AX29" s="36"/>
+      <c r="AY29" s="36"/>
+      <c r="AZ29" s="50"/>
+      <c r="BA29" s="53"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="60"/>
+      <c r="BE29" s="64"/>
+      <c r="BH29" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="2:69">
+      <c r="B30" s="5"/>
+      <c r="D30" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="92">
+        <f>J28-J26</f>
+        <v>950</v>
+      </c>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="98"/>
+      <c r="S30" s="64"/>
+      <c r="V30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN30" s="5"/>
+      <c r="AP30" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ30" s="35"/>
+      <c r="AR30" s="35"/>
+      <c r="AS30" s="35"/>
+      <c r="AT30" s="35"/>
+      <c r="AU30" s="35"/>
+      <c r="AV30" s="35"/>
+      <c r="AW30" s="35"/>
+      <c r="AX30" s="35"/>
+      <c r="AY30" s="35"/>
+      <c r="AZ30" s="49">
+        <v>5</v>
+      </c>
+      <c r="BA30" s="52"/>
+      <c r="BB30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="60"/>
+      <c r="BE30" s="64"/>
+    </row>
+    <row r="31" spans="2:69">
+      <c r="B31" s="5"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="99"/>
+      <c r="S31" s="64"/>
+      <c r="AN31" s="5"/>
+      <c r="AP31" s="23"/>
+      <c r="AQ31" s="36"/>
+      <c r="AR31" s="36"/>
+      <c r="AS31" s="36"/>
+      <c r="AT31" s="36"/>
+      <c r="AU31" s="36"/>
+      <c r="AV31" s="36"/>
+      <c r="AW31" s="36"/>
+      <c r="AX31" s="36"/>
+      <c r="AY31" s="36"/>
+      <c r="AZ31" s="50"/>
+      <c r="BA31" s="53"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="60"/>
+      <c r="BE31" s="64"/>
+      <c r="BH31" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="2:69">
+      <c r="B32" s="5"/>
+      <c r="S32" s="64"/>
+      <c r="AN32" s="5"/>
+      <c r="AP32" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ32" s="35"/>
+      <c r="AR32" s="35"/>
+      <c r="AS32" s="35"/>
+      <c r="AT32" s="35"/>
+      <c r="AU32" s="35"/>
+      <c r="AV32" s="35"/>
+      <c r="AW32" s="35"/>
+      <c r="AX32" s="35"/>
+      <c r="AY32" s="35"/>
+      <c r="AZ32" s="49">
+        <v>2</v>
+      </c>
+      <c r="BA32" s="52"/>
+      <c r="BB32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="60"/>
+      <c r="BE32" s="64"/>
+    </row>
+    <row r="33" spans="2:68">
+      <c r="B33" s="5"/>
+      <c r="S33" s="64"/>
+      <c r="AN33" s="5"/>
+      <c r="AP33" s="23"/>
+      <c r="AQ33" s="36"/>
+      <c r="AR33" s="36"/>
+      <c r="AS33" s="36"/>
+      <c r="AT33" s="36"/>
+      <c r="AU33" s="36"/>
+      <c r="AV33" s="36"/>
+      <c r="AW33" s="36"/>
+      <c r="AX33" s="36"/>
+      <c r="AY33" s="36"/>
+      <c r="AZ33" s="50"/>
+      <c r="BA33" s="53"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE33" s="64"/>
+      <c r="BH33" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="2:68">
+      <c r="B34" s="5"/>
+      <c r="D34" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="45"/>
+      <c r="S34" s="64"/>
+      <c r="AN34" s="5"/>
+      <c r="BE34" s="64"/>
+    </row>
+    <row r="35" spans="2:68">
+      <c r="B35" s="5"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="46"/>
+      <c r="S35" s="64"/>
+      <c r="AN35" s="5"/>
+      <c r="AP35" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BE35" s="64"/>
+    </row>
+    <row r="36" spans="2:68">
+      <c r="B36" s="5"/>
+      <c r="S36" s="64"/>
+      <c r="AN36" s="5"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BE36" s="64"/>
+      <c r="BH36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:68" ht="13.75">
+      <c r="B37" s="6"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="65"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="9"/>
+      <c r="AP37" s="9"/>
+      <c r="AQ37" s="9"/>
+      <c r="AR37" s="9"/>
+      <c r="AS37" s="9"/>
+      <c r="AT37" s="9"/>
+      <c r="AU37" s="9"/>
+      <c r="AV37" s="9"/>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="9"/>
+      <c r="AY37" s="9"/>
+      <c r="AZ37" s="9"/>
+      <c r="BA37" s="9"/>
+      <c r="BB37" s="9"/>
+      <c r="BC37" s="9"/>
+      <c r="BD37" s="9"/>
+      <c r="BE37" s="65"/>
+      <c r="BI37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:68">
+      <c r="BI38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:68">
+      <c r="BI39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:68">
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="2:68">
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="2:68">
+      <c r="C42" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="41"/>
+      <c r="H42" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="71"/>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="73"/>
+      <c r="AD42" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="54"/>
+      <c r="AG42" s="54"/>
+      <c r="AH42" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI42" s="54"/>
+      <c r="AJ42" s="54"/>
+      <c r="AK42" s="54"/>
+      <c r="AL42" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM42" s="54"/>
+      <c r="AN42" s="54"/>
+      <c r="AO42" s="54"/>
+    </row>
+    <row r="43" spans="2:68">
+      <c r="C43" s="77">
+        <v>1</v>
+      </c>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="51"/>
+      <c r="H43" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="W43" s="72"/>
+      <c r="X43" s="72"/>
+      <c r="Y43" s="72"/>
+      <c r="Z43" s="72"/>
+      <c r="AA43" s="72"/>
+      <c r="AB43" s="72"/>
+      <c r="AC43" s="74"/>
+      <c r="AD43" s="55">
+        <v>15</v>
+      </c>
+      <c r="AE43" s="55"/>
+      <c r="AF43" s="55"/>
+      <c r="AG43" s="55"/>
+      <c r="AH43" s="55">
+        <v>30</v>
+      </c>
+      <c r="AI43" s="55"/>
+      <c r="AJ43" s="55"/>
+      <c r="AK43" s="55"/>
+      <c r="AL43" s="55"/>
+      <c r="AM43" s="55"/>
+      <c r="AN43" s="55"/>
+      <c r="AO43" s="55"/>
+    </row>
+    <row r="44" spans="2:68">
+      <c r="C44" s="77">
+        <v>2</v>
+      </c>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="51"/>
+      <c r="H44" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="72"/>
+      <c r="Z44" s="72"/>
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="72"/>
+      <c r="AC44" s="74"/>
+      <c r="AD44" s="55">
+        <v>30</v>
+      </c>
+      <c r="AE44" s="55"/>
+      <c r="AF44" s="55"/>
+      <c r="AG44" s="55"/>
+      <c r="AH44" s="55">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="55"/>
+      <c r="AJ44" s="55"/>
+      <c r="AK44" s="55"/>
+      <c r="AL44" s="55"/>
+      <c r="AM44" s="55"/>
+      <c r="AN44" s="55"/>
+      <c r="AO44" s="55"/>
+    </row>
+    <row r="45" spans="2:68">
+      <c r="C45" s="77">
+        <v>3</v>
+      </c>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="51"/>
+      <c r="H45" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="69">
+        <v>100</v>
+      </c>
+      <c r="W45" s="72"/>
+      <c r="X45" s="72"/>
+      <c r="Y45" s="72"/>
+      <c r="Z45" s="72"/>
+      <c r="AA45" s="72"/>
+      <c r="AB45" s="72"/>
+      <c r="AC45" s="74"/>
+      <c r="AD45" s="55">
+        <v>15</v>
+      </c>
+      <c r="AE45" s="55"/>
+      <c r="AF45" s="55"/>
+      <c r="AG45" s="55"/>
+      <c r="AH45" s="55">
+        <v>30</v>
+      </c>
+      <c r="AI45" s="55"/>
+      <c r="AJ45" s="55"/>
+      <c r="AK45" s="55"/>
+      <c r="AL45" s="55"/>
+      <c r="AM45" s="55"/>
+      <c r="AN45" s="55"/>
+      <c r="AO45" s="55"/>
+    </row>
+    <row r="46" spans="2:68">
+      <c r="C46" s="77">
+        <v>4</v>
+      </c>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="51"/>
+      <c r="H46" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="74"/>
+      <c r="AD46" s="55">
+        <v>30</v>
+      </c>
+      <c r="AE46" s="55"/>
+      <c r="AF46" s="55"/>
+      <c r="AG46" s="55"/>
+      <c r="AH46" s="55">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="55"/>
+      <c r="AJ46" s="55"/>
+      <c r="AK46" s="55"/>
+      <c r="AL46" s="55"/>
+      <c r="AM46" s="55"/>
+      <c r="AN46" s="55"/>
+      <c r="AO46" s="55"/>
+    </row>
+    <row r="48" spans="2:68">
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="2:62">
+      <c r="C49" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
+      <c r="AA49" s="54"/>
+      <c r="AB49" s="54"/>
+      <c r="AC49" s="54"/>
+      <c r="AD49" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE49" s="54"/>
+      <c r="AF49" s="54"/>
+      <c r="AG49" s="54"/>
+    </row>
+    <row r="50" spans="2:62" s="1" customFormat="1">
+      <c r="B50" s="1"/>
+      <c r="C50" s="77">
+        <v>1</v>
+      </c>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84">
+        <v>1000</v>
+      </c>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84">
+        <v>1</v>
+      </c>
+      <c r="S50" s="84"/>
+      <c r="T50" s="84"/>
+      <c r="U50" s="84"/>
+      <c r="V50" s="84"/>
+      <c r="W50" s="84"/>
+      <c r="X50" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="84"/>
+      <c r="Z50" s="84"/>
+      <c r="AA50" s="84"/>
+      <c r="AB50" s="84"/>
+      <c r="AC50" s="84"/>
+      <c r="AD50" s="55"/>
+      <c r="AE50" s="55"/>
+      <c r="AF50" s="55"/>
+      <c r="AG50" s="55"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+    </row>
+    <row r="51" spans="2:62" s="1" customFormat="1">
+      <c r="B51" s="1"/>
+      <c r="C51" s="77">
+        <v>2</v>
+      </c>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84">
+        <v>600</v>
+      </c>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="84">
+        <v>1</v>
+      </c>
+      <c r="S51" s="84"/>
+      <c r="T51" s="84"/>
+      <c r="U51" s="84"/>
+      <c r="V51" s="84"/>
+      <c r="W51" s="84"/>
+      <c r="X51" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="84"/>
+      <c r="Z51" s="84"/>
+      <c r="AA51" s="84"/>
+      <c r="AB51" s="84"/>
+      <c r="AC51" s="84"/>
+      <c r="AD51" s="55"/>
+      <c r="AE51" s="55"/>
+      <c r="AF51" s="55"/>
+      <c r="AG51" s="55"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+    </row>
+    <row r="52" spans="2:62">
+      <c r="C52" s="77">
+        <v>3</v>
+      </c>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84">
+        <v>700</v>
+      </c>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84">
+        <v>1</v>
+      </c>
+      <c r="S52" s="84"/>
+      <c r="T52" s="84"/>
+      <c r="U52" s="84"/>
+      <c r="V52" s="84"/>
+      <c r="W52" s="84"/>
+      <c r="X52" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="84"/>
+      <c r="Z52" s="84"/>
+      <c r="AA52" s="84"/>
+      <c r="AB52" s="84"/>
+      <c r="AC52" s="84"/>
+      <c r="AD52" s="55"/>
+      <c r="AE52" s="55"/>
+      <c r="AF52" s="55"/>
+      <c r="AG52" s="55"/>
+    </row>
+    <row r="53" spans="2:62">
+      <c r="C53" s="77">
+        <v>4</v>
+      </c>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84">
+        <v>800</v>
+      </c>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84">
+        <v>1</v>
+      </c>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="84"/>
+      <c r="V53" s="84"/>
+      <c r="W53" s="84"/>
+      <c r="X53" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="84"/>
+      <c r="Z53" s="84"/>
+      <c r="AA53" s="84"/>
+      <c r="AB53" s="84"/>
+      <c r="AC53" s="84"/>
+      <c r="AD53" s="55"/>
+      <c r="AE53" s="55"/>
+      <c r="AF53" s="55"/>
+      <c r="AG53" s="55"/>
+    </row>
+    <row r="54" spans="2:62">
+      <c r="C54" s="77">
+        <v>5</v>
+      </c>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84">
+        <v>500</v>
+      </c>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84">
+        <v>1</v>
+      </c>
+      <c r="S54" s="84"/>
+      <c r="T54" s="84"/>
+      <c r="U54" s="84"/>
+      <c r="V54" s="84"/>
+      <c r="W54" s="84"/>
+      <c r="X54" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="84"/>
+      <c r="Z54" s="84"/>
+      <c r="AA54" s="84"/>
+      <c r="AB54" s="84"/>
+      <c r="AC54" s="84"/>
+      <c r="AD54" s="55"/>
+      <c r="AE54" s="55"/>
+      <c r="AF54" s="55"/>
+      <c r="AG54" s="55"/>
+    </row>
+    <row r="55" spans="2:62">
+      <c r="C55" s="77">
+        <v>6</v>
+      </c>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84">
+        <v>1300</v>
+      </c>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84">
+        <v>2</v>
+      </c>
+      <c r="S55" s="84"/>
+      <c r="T55" s="84"/>
+      <c r="U55" s="84"/>
+      <c r="V55" s="84"/>
+      <c r="W55" s="84"/>
+      <c r="X55" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="84"/>
+      <c r="Z55" s="84"/>
+      <c r="AA55" s="84"/>
+      <c r="AB55" s="84"/>
+      <c r="AC55" s="84"/>
+      <c r="AD55" s="55"/>
+      <c r="AE55" s="55"/>
+      <c r="AF55" s="55"/>
+      <c r="AG55" s="55"/>
+    </row>
+    <row r="56" spans="2:62">
+      <c r="C56" s="77">
+        <v>7</v>
+      </c>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84">
+        <v>2000</v>
+      </c>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84">
+        <v>3</v>
+      </c>
+      <c r="S56" s="84"/>
+      <c r="T56" s="84"/>
+      <c r="U56" s="84"/>
+      <c r="V56" s="84"/>
+      <c r="W56" s="84"/>
+      <c r="X56" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="84"/>
+      <c r="Z56" s="84"/>
+      <c r="AA56" s="84"/>
+      <c r="AB56" s="84"/>
+      <c r="AC56" s="84"/>
+      <c r="AD56" s="55"/>
+      <c r="AE56" s="55"/>
+      <c r="AF56" s="55"/>
+      <c r="AG56" s="55"/>
+    </row>
+    <row r="57" spans="2:62">
+      <c r="C57" s="77">
+        <v>8</v>
+      </c>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84">
+        <v>2500</v>
+      </c>
+      <c r="M57" s="84"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
+      <c r="Q57" s="84"/>
+      <c r="R57" s="84">
+        <v>2</v>
+      </c>
+      <c r="S57" s="84"/>
+      <c r="T57" s="84"/>
+      <c r="U57" s="84"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
+      <c r="X57" s="84">
+        <v>60</v>
+      </c>
+      <c r="Y57" s="84"/>
+      <c r="Z57" s="84"/>
+      <c r="AA57" s="84"/>
+      <c r="AB57" s="84"/>
+      <c r="AC57" s="84"/>
+      <c r="AD57" s="55"/>
+      <c r="AE57" s="55"/>
+      <c r="AF57" s="55"/>
+      <c r="AG57" s="55"/>
+    </row>
+    <row r="63" spans="2:62">
+      <c r="BJ63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:62">
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="2:56">
+      <c r="B65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="66"/>
+      <c r="AM65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN65" s="10"/>
+      <c r="AO65" s="10"/>
+      <c r="AP65" s="10"/>
+      <c r="AQ65" s="10"/>
+      <c r="AR65" s="10"/>
+      <c r="AS65" s="10"/>
+      <c r="AT65" s="10"/>
+      <c r="AU65" s="10"/>
+      <c r="AV65" s="10"/>
+      <c r="AW65" s="10"/>
+      <c r="AX65" s="10"/>
+      <c r="AY65" s="10"/>
+      <c r="AZ65" s="10"/>
+      <c r="BA65" s="10"/>
+      <c r="BB65" s="10"/>
+      <c r="BC65" s="10"/>
+      <c r="BD65" s="66"/>
+    </row>
+    <row r="66" spans="2:56">
+      <c r="B66" s="8"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="67"/>
+      <c r="AM66" s="8"/>
+      <c r="AN66" s="2"/>
+      <c r="AO66" s="2"/>
+      <c r="AP66" s="2"/>
+      <c r="AQ66" s="2"/>
+      <c r="AR66" s="2"/>
+      <c r="AS66" s="2"/>
+      <c r="AT66" s="2"/>
+      <c r="AU66" s="2"/>
+      <c r="AV66" s="2"/>
+      <c r="AW66" s="2"/>
+      <c r="AX66" s="2"/>
+      <c r="AY66" s="2"/>
+      <c r="AZ66" s="2"/>
+      <c r="BA66" s="2"/>
+      <c r="BB66" s="2"/>
+      <c r="BC66" s="2"/>
+      <c r="BD66" s="67"/>
+    </row>
+    <row r="67" spans="2:56">
+      <c r="B67" s="8"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="67"/>
+      <c r="AM67" s="8"/>
+      <c r="AN67" s="2"/>
+      <c r="AO67" s="2"/>
+      <c r="AP67" s="2"/>
+      <c r="AQ67" s="2"/>
+      <c r="AR67" s="2"/>
+      <c r="AS67" s="2"/>
+      <c r="AT67" s="2"/>
+      <c r="AU67" s="2"/>
+      <c r="AV67" s="2"/>
+      <c r="AW67" s="2"/>
+      <c r="AX67" s="2"/>
+      <c r="AY67" s="2"/>
+      <c r="AZ67" s="2"/>
+      <c r="BA67" s="2"/>
+      <c r="BB67" s="2"/>
+      <c r="BC67" s="2"/>
+      <c r="BD67" s="67"/>
+    </row>
+    <row r="68" spans="2:56">
+      <c r="B68" s="5"/>
+      <c r="S68" s="64"/>
+      <c r="AM68" s="5"/>
+      <c r="BD68" s="64"/>
+    </row>
+    <row r="69" spans="2:56">
+      <c r="B69" s="5"/>
+      <c r="C69" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="64"/>
+      <c r="AM69" s="5"/>
+      <c r="AO69" s="18">
+        <v>44461</v>
+      </c>
+      <c r="AP69" s="3"/>
+      <c r="AQ69" s="3"/>
+      <c r="AR69" s="3"/>
+      <c r="AS69" s="3"/>
+      <c r="AT69" s="3"/>
+      <c r="AU69" s="3"/>
+      <c r="AV69" s="3"/>
+      <c r="AW69" s="3"/>
+      <c r="AX69" s="3"/>
+      <c r="AY69" s="3"/>
+      <c r="AZ69" s="3"/>
+      <c r="BA69" s="3"/>
+      <c r="BB69" s="3"/>
+      <c r="BD69" s="64"/>
+    </row>
+    <row r="70" spans="2:56">
+      <c r="B70" s="5"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="62"/>
+      <c r="S70" s="64"/>
+      <c r="AM70" s="5"/>
+      <c r="AO70" s="3"/>
+      <c r="AP70" s="3"/>
+      <c r="AQ70" s="3"/>
+      <c r="AR70" s="3"/>
+      <c r="AS70" s="3"/>
+      <c r="AT70" s="3"/>
+      <c r="AU70" s="3"/>
+      <c r="AV70" s="3"/>
+      <c r="AW70" s="3"/>
+      <c r="AX70" s="3"/>
+      <c r="AY70" s="3"/>
+      <c r="AZ70" s="3"/>
+      <c r="BA70" s="3"/>
+      <c r="BB70" s="3"/>
+      <c r="BD70" s="64"/>
+    </row>
+    <row r="71" spans="2:56">
+      <c r="B71" s="5"/>
+      <c r="S71" s="64"/>
+      <c r="AM71" s="5"/>
+      <c r="BD71" s="64"/>
+    </row>
+    <row r="72" spans="2:56">
+      <c r="B72" s="5"/>
+      <c r="C72" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="64"/>
+      <c r="AM72" s="5"/>
+      <c r="AO72" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT72" s="42"/>
+      <c r="AU72" s="42"/>
+      <c r="AV72" s="42"/>
+      <c r="AW72" s="42"/>
+      <c r="AX72" s="42"/>
+      <c r="AY72" s="42"/>
+      <c r="AZ72" s="42"/>
+      <c r="BA72" s="42"/>
+      <c r="BB72" s="42"/>
+      <c r="BD72" s="64"/>
+    </row>
+    <row r="73" spans="2:56">
+      <c r="B73" s="5"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="62"/>
+      <c r="S73" s="64"/>
+      <c r="AM73" s="5"/>
+      <c r="BD73" s="64"/>
+    </row>
+    <row r="74" spans="2:56">
+      <c r="B74" s="4"/>
+      <c r="S74" s="63"/>
+      <c r="AM74" s="4"/>
+      <c r="AO74" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT74" s="42"/>
+      <c r="AU74" s="42"/>
+      <c r="AV74" s="42"/>
+      <c r="AW74" s="42"/>
+      <c r="AX74" s="42"/>
+      <c r="AY74" s="42"/>
+      <c r="AZ74" s="42"/>
+      <c r="BA74" s="42"/>
+      <c r="BB74" s="42"/>
+      <c r="BD74" s="63"/>
+    </row>
+    <row r="75" spans="2:56">
+      <c r="B75" s="4"/>
+      <c r="S75" s="63"/>
+      <c r="AM75" s="4"/>
+      <c r="BD75" s="63"/>
+    </row>
+    <row r="76" spans="2:56">
+      <c r="B76" s="5"/>
+      <c r="S76" s="64"/>
+      <c r="AM76" s="5"/>
+      <c r="BD76" s="64"/>
+    </row>
+    <row r="77" spans="2:56">
+      <c r="B77" s="5"/>
+      <c r="C77" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="61"/>
+      <c r="S77" s="63"/>
+      <c r="U77" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM77" s="5"/>
+      <c r="BD77" s="63"/>
+    </row>
+    <row r="78" spans="2:56">
+      <c r="B78" s="5"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="62"/>
+      <c r="S78" s="63"/>
+      <c r="U78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM78" s="5"/>
+      <c r="BD78" s="63"/>
+    </row>
+    <row r="79" spans="2:56">
+      <c r="B79" s="5"/>
+      <c r="S79" s="64"/>
+      <c r="AM79" s="5"/>
+      <c r="BD79" s="64"/>
+    </row>
+    <row r="80" spans="2:56">
+      <c r="B80" s="5"/>
+      <c r="S80" s="64"/>
+      <c r="AM80" s="5"/>
+      <c r="BD80" s="64"/>
+    </row>
+    <row r="81" spans="2:56">
+      <c r="B81" s="5"/>
+      <c r="C81" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="61"/>
+      <c r="S81" s="64"/>
+      <c r="AM81" s="5"/>
+      <c r="BD81" s="64"/>
+    </row>
+    <row r="82" spans="2:56">
+      <c r="B82" s="5"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="30"/>
+      <c r="R82" s="62"/>
+      <c r="S82" s="63"/>
+      <c r="AM82" s="5"/>
+      <c r="BD82" s="63"/>
+    </row>
+    <row r="83" spans="2:56">
+      <c r="B83" s="5"/>
+      <c r="S83" s="63"/>
+      <c r="AM83" s="5"/>
+      <c r="BD83" s="63"/>
+    </row>
+    <row r="84" spans="2:56">
+      <c r="B84" s="5"/>
+      <c r="S84" s="64"/>
+      <c r="AM84" s="5"/>
+      <c r="BD84" s="64"/>
+    </row>
+    <row r="85" spans="2:56">
+      <c r="B85" s="5"/>
+      <c r="S85" s="64"/>
+      <c r="AM85" s="5"/>
+      <c r="BD85" s="64"/>
+    </row>
+    <row r="86" spans="2:56">
+      <c r="B86" s="5"/>
+      <c r="S86" s="64"/>
+      <c r="AM86" s="5"/>
+      <c r="BD86" s="64"/>
+    </row>
+    <row r="87" spans="2:56">
+      <c r="B87" s="5"/>
+      <c r="S87" s="63"/>
+      <c r="AM87" s="5"/>
+      <c r="BD87" s="63"/>
+    </row>
+    <row r="88" spans="2:56">
+      <c r="B88" s="5"/>
+      <c r="S88" s="63"/>
+      <c r="AM88" s="5"/>
+      <c r="BD88" s="63"/>
+    </row>
+    <row r="89" spans="2:56">
+      <c r="B89" s="5"/>
+      <c r="S89" s="64"/>
+      <c r="AM89" s="5"/>
+      <c r="BD89" s="64"/>
+    </row>
+    <row r="90" spans="2:56">
+      <c r="B90" s="5"/>
+      <c r="S90" s="64"/>
+      <c r="AM90" s="5"/>
+      <c r="BD90" s="64"/>
+    </row>
+    <row r="91" spans="2:56">
+      <c r="B91" s="5"/>
+      <c r="S91" s="64"/>
+      <c r="AM91" s="5"/>
+      <c r="BD91" s="64"/>
+    </row>
+    <row r="92" spans="2:56">
+      <c r="B92" s="5"/>
+      <c r="S92" s="64"/>
+      <c r="AM92" s="5"/>
+      <c r="BD92" s="64"/>
+    </row>
+    <row r="93" spans="2:56">
+      <c r="B93" s="5"/>
+      <c r="S93" s="64"/>
+      <c r="AM93" s="5"/>
+      <c r="BD93" s="64"/>
+    </row>
+    <row r="94" spans="2:56">
+      <c r="B94" s="5"/>
+      <c r="S94" s="64"/>
+      <c r="AM94" s="5"/>
+      <c r="BD94" s="64"/>
+    </row>
+    <row r="95" spans="2:56">
+      <c r="B95" s="5"/>
+      <c r="S95" s="64"/>
+      <c r="AM95" s="5"/>
+      <c r="BD95" s="64"/>
+    </row>
+    <row r="96" spans="2:56">
+      <c r="B96" s="5"/>
+      <c r="C96" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="S96" s="64"/>
+      <c r="U96" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM96" s="5"/>
+      <c r="AN96" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO96" s="13"/>
+      <c r="AP96" s="13"/>
+      <c r="AQ96" s="13"/>
+      <c r="AR96" s="13"/>
+      <c r="AS96" s="13"/>
+      <c r="AT96" s="13"/>
+      <c r="AU96" s="13"/>
+      <c r="AV96" s="13"/>
+      <c r="AW96" s="13"/>
+      <c r="AX96" s="13"/>
+      <c r="AY96" s="13"/>
+      <c r="AZ96" s="13"/>
+      <c r="BA96" s="13"/>
+      <c r="BB96" s="13"/>
+      <c r="BD96" s="64"/>
+    </row>
+    <row r="97" spans="2:56">
+      <c r="B97" s="5"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="S97" s="64"/>
+      <c r="Y97" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM97" s="5"/>
+      <c r="AN97" s="13"/>
+      <c r="AO97" s="13"/>
+      <c r="AP97" s="13"/>
+      <c r="AQ97" s="13"/>
+      <c r="AR97" s="13"/>
+      <c r="AS97" s="13"/>
+      <c r="AT97" s="13"/>
+      <c r="AU97" s="13"/>
+      <c r="AV97" s="13"/>
+      <c r="AW97" s="13"/>
+      <c r="AX97" s="13"/>
+      <c r="AY97" s="13"/>
+      <c r="AZ97" s="13"/>
+      <c r="BA97" s="13"/>
+      <c r="BB97" s="13"/>
+      <c r="BD97" s="64"/>
+    </row>
+    <row r="98" spans="2:56">
+      <c r="B98" s="5"/>
+      <c r="S98" s="64"/>
+      <c r="AM98" s="5"/>
+      <c r="BD98" s="64"/>
+    </row>
+    <row r="99" spans="2:56" ht="13.75">
+      <c r="B99" s="6"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="65"/>
+      <c r="AM99" s="6"/>
+      <c r="AN99" s="9"/>
+      <c r="AO99" s="9"/>
+      <c r="AP99" s="9"/>
+      <c r="AQ99" s="9"/>
+      <c r="AR99" s="9"/>
+      <c r="AS99" s="9"/>
+      <c r="AT99" s="9"/>
+      <c r="AU99" s="9"/>
+      <c r="AV99" s="9"/>
+      <c r="AW99" s="9"/>
+      <c r="AX99" s="9"/>
+      <c r="AY99" s="9"/>
+      <c r="AZ99" s="9"/>
+      <c r="BA99" s="9"/>
+      <c r="BB99" s="9"/>
+      <c r="BC99" s="9"/>
+      <c r="BD99" s="65"/>
+    </row>
+    <row r="101" spans="2:56">
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="2:56">
+      <c r="B102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="66"/>
+    </row>
+    <row r="103" spans="2:56">
+      <c r="B103" s="8"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="67"/>
+    </row>
+    <row r="104" spans="2:56">
+      <c r="B104" s="8"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="67"/>
+    </row>
+    <row r="105" spans="2:56">
+      <c r="B105" s="5"/>
+      <c r="S105" s="64"/>
+    </row>
+    <row r="106" spans="2:56">
+      <c r="B106" s="5"/>
+      <c r="C106" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J106" s="31"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="31"/>
+      <c r="M106" s="31"/>
+      <c r="N106" s="41"/>
+      <c r="O106" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="P106" s="54"/>
+      <c r="Q106" s="54"/>
+      <c r="R106" s="54"/>
+      <c r="S106" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="T106" s="71"/>
+      <c r="U106" s="71"/>
+      <c r="V106" s="71"/>
+      <c r="W106" s="71"/>
+      <c r="X106" s="71"/>
+      <c r="Y106" s="71"/>
+      <c r="Z106" s="73"/>
+      <c r="AA106" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB106" s="54"/>
+      <c r="AC106" s="54"/>
+      <c r="AD106" s="54"/>
+      <c r="AE106" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF106" s="54"/>
+      <c r="AG106" s="54"/>
+      <c r="AH106" s="54"/>
+      <c r="AI106" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ106" s="31"/>
+      <c r="AK106" s="41"/>
+      <c r="AL106" s="58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="2:56" ht="18" customHeight="1">
+      <c r="B107" s="5"/>
+      <c r="C107" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="51"/>
+      <c r="O107" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="P107" s="55"/>
+      <c r="Q107" s="55"/>
+      <c r="R107" s="55"/>
+      <c r="S107" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="T107" s="72"/>
+      <c r="U107" s="72"/>
+      <c r="V107" s="72"/>
+      <c r="W107" s="72"/>
+      <c r="X107" s="72"/>
+      <c r="Y107" s="72"/>
+      <c r="Z107" s="74"/>
+      <c r="AA107" s="55">
+        <v>15</v>
+      </c>
+      <c r="AB107" s="55"/>
+      <c r="AC107" s="55"/>
+      <c r="AD107" s="55"/>
+      <c r="AE107" s="55">
+        <v>30</v>
+      </c>
+      <c r="AF107" s="55"/>
+      <c r="AG107" s="55"/>
+      <c r="AH107" s="55"/>
+      <c r="AI107" s="79"/>
+      <c r="AJ107" s="80"/>
+      <c r="AK107" s="81"/>
+      <c r="AL107" s="60"/>
+      <c r="AO107" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="2:56" ht="18" customHeight="1">
+      <c r="B108" s="5"/>
+      <c r="C108" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="51"/>
+      <c r="O108" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="P108" s="55"/>
+      <c r="Q108" s="55"/>
+      <c r="R108" s="55"/>
+      <c r="S108" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="T108" s="72"/>
+      <c r="U108" s="72"/>
+      <c r="V108" s="72"/>
+      <c r="W108" s="72"/>
+      <c r="X108" s="72"/>
+      <c r="Y108" s="72"/>
+      <c r="Z108" s="74"/>
+      <c r="AA108" s="55">
+        <v>30</v>
+      </c>
+      <c r="AB108" s="55"/>
+      <c r="AC108" s="55"/>
+      <c r="AD108" s="55"/>
+      <c r="AE108" s="55">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="55"/>
+      <c r="AG108" s="55"/>
+      <c r="AH108" s="55"/>
+      <c r="AI108" s="79"/>
+      <c r="AJ108" s="80"/>
+      <c r="AK108" s="81"/>
+      <c r="AL108" s="60"/>
+    </row>
+    <row r="109" spans="2:56" ht="18" customHeight="1">
+      <c r="B109" s="5"/>
+      <c r="C109" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J109" s="32"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="51"/>
+      <c r="O109" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="P109" s="55"/>
+      <c r="Q109" s="55"/>
+      <c r="R109" s="55"/>
+      <c r="S109" s="69">
+        <v>100</v>
+      </c>
+      <c r="T109" s="72"/>
+      <c r="U109" s="72"/>
+      <c r="V109" s="72"/>
+      <c r="W109" s="72"/>
+      <c r="X109" s="72"/>
+      <c r="Y109" s="72"/>
+      <c r="Z109" s="74"/>
+      <c r="AA109" s="55">
+        <v>15</v>
+      </c>
+      <c r="AB109" s="55"/>
+      <c r="AC109" s="55"/>
+      <c r="AD109" s="55"/>
+      <c r="AE109" s="55">
+        <v>30</v>
+      </c>
+      <c r="AF109" s="55"/>
+      <c r="AG109" s="55"/>
+      <c r="AH109" s="55"/>
+      <c r="AI109" s="79"/>
+      <c r="AJ109" s="80"/>
+      <c r="AK109" s="81"/>
+      <c r="AL109" s="60"/>
+    </row>
+    <row r="110" spans="2:56" ht="18" customHeight="1">
+      <c r="B110" s="5"/>
+      <c r="C110" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="51"/>
+      <c r="O110" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="P110" s="55"/>
+      <c r="Q110" s="55"/>
+      <c r="R110" s="55"/>
+      <c r="S110" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="T110" s="72"/>
+      <c r="U110" s="72"/>
+      <c r="V110" s="72"/>
+      <c r="W110" s="72"/>
+      <c r="X110" s="72"/>
+      <c r="Y110" s="72"/>
+      <c r="Z110" s="74"/>
+      <c r="AA110" s="55">
+        <v>30</v>
+      </c>
+      <c r="AB110" s="55"/>
+      <c r="AC110" s="55"/>
+      <c r="AD110" s="55"/>
+      <c r="AE110" s="55">
+        <v>0</v>
+      </c>
+      <c r="AF110" s="55"/>
+      <c r="AG110" s="55"/>
+      <c r="AH110" s="55"/>
+      <c r="AI110" s="79"/>
+      <c r="AJ110" s="80"/>
+      <c r="AK110" s="81"/>
+      <c r="AL110" s="60"/>
+    </row>
+    <row r="111" spans="2:56">
+      <c r="B111" s="4"/>
+      <c r="C111" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D111" s="15"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="32"/>
+      <c r="O111" s="32"/>
+      <c r="P111" s="32"/>
+      <c r="Q111" s="32"/>
+      <c r="R111" s="32"/>
+      <c r="S111" s="70"/>
+      <c r="T111" s="32"/>
+      <c r="U111" s="32"/>
+      <c r="V111" s="32"/>
+      <c r="W111" s="32"/>
+      <c r="X111" s="32"/>
+      <c r="Y111" s="32"/>
+      <c r="Z111" s="32"/>
+      <c r="AA111" s="32"/>
+      <c r="AB111" s="32"/>
+      <c r="AC111" s="32"/>
+      <c r="AD111" s="32"/>
+      <c r="AE111" s="32"/>
+      <c r="AF111" s="32"/>
+      <c r="AG111" s="32"/>
+      <c r="AH111" s="32"/>
+      <c r="AI111" s="32"/>
+      <c r="AJ111" s="51"/>
+      <c r="AK111" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL111" s="58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="2:56">
+      <c r="B112" s="4"/>
+      <c r="S112" s="63"/>
+    </row>
+    <row r="113" spans="2:31">
+      <c r="B113" s="5"/>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="42"/>
+      <c r="M113" s="42"/>
+      <c r="N113" s="42"/>
+      <c r="O113" s="42"/>
+      <c r="P113" s="42"/>
+      <c r="Q113" s="42"/>
+      <c r="S113" s="64"/>
+      <c r="U113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:31">
+      <c r="B114" s="5"/>
+      <c r="S114" s="63"/>
+    </row>
+    <row r="115" spans="2:31">
+      <c r="B115" s="5"/>
+      <c r="C115" t="s">
+        <v>48</v>
+      </c>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="42"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="42"/>
+      <c r="O115" s="42"/>
+      <c r="P115" s="42"/>
+      <c r="Q115" s="42"/>
+      <c r="S115" s="64"/>
+      <c r="U115" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="2:31">
+      <c r="B116" s="5"/>
+      <c r="S116" s="63"/>
+    </row>
+    <row r="117" spans="2:31">
+      <c r="B117" s="5"/>
+      <c r="C117" t="s">
+        <v>50</v>
+      </c>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="42"/>
+      <c r="P117" s="42"/>
+      <c r="Q117" s="42"/>
+      <c r="S117" s="64"/>
+      <c r="U117" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="2:31">
+      <c r="B118" s="5"/>
+      <c r="S118" s="64"/>
+    </row>
+    <row r="119" spans="2:31">
+      <c r="B119" s="5"/>
+      <c r="C119" t="s">
+        <v>95</v>
+      </c>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="42"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="42"/>
+      <c r="O119" s="42"/>
+      <c r="P119" s="42"/>
+      <c r="Q119" s="42"/>
+      <c r="S119" s="64"/>
+      <c r="U119" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="2:31">
+      <c r="B120" s="5"/>
+      <c r="S120" s="64"/>
+    </row>
+    <row r="121" spans="2:31">
+      <c r="B121" s="5"/>
+      <c r="C121" t="s">
+        <v>96</v>
+      </c>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="42"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="42"/>
+      <c r="M121" s="42"/>
+      <c r="N121" s="42"/>
+      <c r="O121" s="42"/>
+      <c r="P121" s="42"/>
+      <c r="Q121" s="42"/>
+      <c r="S121" s="64"/>
+      <c r="U121" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="2:31">
+      <c r="B122" s="5"/>
+      <c r="S122" s="63"/>
+    </row>
+    <row r="123" spans="2:31">
+      <c r="B123" s="5"/>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="42"/>
+      <c r="M123" s="42"/>
+      <c r="N123" s="42"/>
+      <c r="O123" s="42"/>
+      <c r="P123" s="42"/>
+      <c r="Q123" s="42"/>
+      <c r="S123" s="64"/>
+      <c r="U123" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="2:31">
+      <c r="B124" s="5"/>
+      <c r="S124" s="64"/>
+    </row>
+    <row r="125" spans="2:31">
+      <c r="B125" s="5"/>
+      <c r="C125" t="s">
+        <v>99</v>
+      </c>
+      <c r="S125" s="64"/>
+      <c r="U125" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="2:31">
+      <c r="B126" s="5"/>
+      <c r="S126" s="64"/>
+    </row>
+    <row r="127" spans="2:31">
+      <c r="B127" s="5"/>
+      <c r="C127" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="13"/>
+      <c r="O127" s="13"/>
+      <c r="P127" s="13"/>
+      <c r="Q127" s="13"/>
+      <c r="S127" s="64"/>
+      <c r="U127" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="128" spans="2:31">
+      <c r="B128" s="5"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="13"/>
+      <c r="O128" s="13"/>
+      <c r="P128" s="13"/>
+      <c r="Q128" s="13"/>
+      <c r="S128" s="63"/>
+      <c r="AE128" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="2:31">
+      <c r="B129" s="5"/>
+      <c r="S129" s="63"/>
+      <c r="AE129" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="2:31">
+      <c r="B130" s="5"/>
+      <c r="S130" s="64"/>
+    </row>
+    <row r="131" spans="2:31">
+      <c r="B131" s="5"/>
+      <c r="S131" s="64"/>
+    </row>
+    <row r="132" spans="2:31">
+      <c r="B132" s="5"/>
+      <c r="S132" s="64"/>
+    </row>
+    <row r="133" spans="2:31">
+      <c r="B133" s="5"/>
+      <c r="S133" s="64"/>
+    </row>
+    <row r="134" spans="2:31">
+      <c r="B134" s="5"/>
+      <c r="S134" s="64"/>
+    </row>
+    <row r="135" spans="2:31">
+      <c r="B135" s="5"/>
+      <c r="S135" s="64"/>
+    </row>
+    <row r="136" spans="2:31">
+      <c r="B136" s="5"/>
+      <c r="S136" s="64"/>
+    </row>
+    <row r="137" spans="2:31">
+      <c r="B137" s="5"/>
+      <c r="C137" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
+      <c r="M137" s="13"/>
+      <c r="N137" s="13"/>
+      <c r="O137" s="13"/>
+      <c r="P137" s="13"/>
+      <c r="Q137" s="13"/>
+      <c r="S137" s="64"/>
+      <c r="U137" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="2:31">
+      <c r="B138" s="5"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+      <c r="O138" s="13"/>
+      <c r="P138" s="13"/>
+      <c r="Q138" s="13"/>
+      <c r="S138" s="64"/>
+      <c r="Y138" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139" spans="2:31">
+      <c r="B139" s="5"/>
+      <c r="S139" s="64"/>
+    </row>
+    <row r="140" spans="2:31" ht="13.75">
+      <c r="B140" s="6"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
+      <c r="R140" s="9"/>
+      <c r="S140" s="65"/>
+    </row>
+    <row r="145" spans="2:53">
+      <c r="B145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+    </row>
+    <row r="146" spans="2:53">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+    </row>
+    <row r="147" spans="2:53">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+    </row>
+    <row r="148" spans="2:53">
+      <c r="B148" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="AC148" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="149" spans="2:53">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+    </row>
+    <row r="150" spans="2:53">
+      <c r="B150" s="5"/>
+      <c r="D150" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="N150" s="17"/>
+      <c r="O150" s="17"/>
+      <c r="P150" s="17"/>
+      <c r="Q150" s="17"/>
+      <c r="S150" s="64"/>
+      <c r="AC150" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD150" s="75"/>
+      <c r="AE150" s="75"/>
+      <c r="AF150" s="75"/>
+      <c r="AG150" s="75"/>
+      <c r="AH150" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI150" s="75"/>
+      <c r="AJ150" s="75"/>
+      <c r="AK150" s="75"/>
+      <c r="AL150" s="75"/>
+      <c r="AM150" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN150" s="75"/>
+      <c r="AO150" s="75"/>
+      <c r="AP150" s="75"/>
+      <c r="AQ150" s="75"/>
+      <c r="AR150" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS150" s="75"/>
+      <c r="AT150" s="75"/>
+      <c r="AU150" s="75"/>
+      <c r="AV150" s="75"/>
+      <c r="AW150" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX150" s="75"/>
+      <c r="AY150" s="75"/>
+      <c r="AZ150" s="75"/>
+      <c r="BA150" s="75"/>
+    </row>
+    <row r="151" spans="2:53">
+      <c r="B151" s="5"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
+      <c r="S151" s="64"/>
+      <c r="AC151" s="76">
+        <v>44461</v>
+      </c>
+      <c r="AD151" s="77"/>
+      <c r="AE151" s="77"/>
+      <c r="AF151" s="77"/>
+      <c r="AG151" s="77"/>
+      <c r="AH151" s="78">
+        <v>0.82986111111111105</v>
+      </c>
+      <c r="AI151" s="77"/>
+      <c r="AJ151" s="77"/>
+      <c r="AK151" s="77"/>
+      <c r="AL151" s="77"/>
+      <c r="AM151" s="78">
+        <v>0.85763888888888895</v>
+      </c>
+      <c r="AN151" s="77"/>
+      <c r="AO151" s="77"/>
+      <c r="AP151" s="77"/>
+      <c r="AQ151" s="77"/>
+      <c r="AR151" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS151" s="77"/>
+      <c r="AT151" s="77"/>
+      <c r="AU151" s="77"/>
+      <c r="AV151" s="77"/>
+      <c r="AW151" s="87">
+        <v>5000</v>
+      </c>
+      <c r="AX151" s="77"/>
+      <c r="AY151" s="77"/>
+      <c r="AZ151" s="77"/>
+      <c r="BA151" s="77"/>
+    </row>
+    <row r="152" spans="2:53">
+      <c r="B152" s="5"/>
+      <c r="D152" s="18">
+        <v>44461</v>
+      </c>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="S152" s="64"/>
+    </row>
+    <row r="153" spans="2:53">
+      <c r="B153" s="5"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="60"/>
+      <c r="S153" s="64"/>
+    </row>
+    <row r="154" spans="2:53">
+      <c r="B154" s="4"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q154" s="19"/>
+      <c r="R154" s="60"/>
+      <c r="S154" s="63"/>
+    </row>
+    <row r="155" spans="2:53">
+      <c r="B155" s="4"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="19"/>
+      <c r="P155" s="19"/>
+      <c r="Q155" s="19"/>
+      <c r="R155" s="60"/>
+      <c r="S155" s="63"/>
+    </row>
+    <row r="156" spans="2:53">
+      <c r="B156" s="5"/>
+      <c r="D156" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="43">
+        <v>0.82986111111111105</v>
+      </c>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="60"/>
+      <c r="S156" s="64"/>
+    </row>
+    <row r="157" spans="2:53">
+      <c r="B157" s="5"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="60"/>
+      <c r="S157" s="63"/>
+    </row>
+    <row r="158" spans="2:53">
+      <c r="B158" s="5"/>
+      <c r="D158" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="43">
+        <v>0.85763888888888895</v>
+      </c>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="60"/>
+      <c r="S158" s="63"/>
+    </row>
+    <row r="159" spans="2:53">
+      <c r="B159" s="5"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="60"/>
+      <c r="S159" s="64"/>
+    </row>
+    <row r="160" spans="2:53">
+      <c r="B160" s="5"/>
+      <c r="R160" s="60"/>
+      <c r="S160" s="64"/>
+    </row>
+    <row r="161" spans="2:19">
+      <c r="B161" s="5"/>
+      <c r="D161" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="33"/>
+      <c r="I161" s="33"/>
+      <c r="J161" s="33"/>
+      <c r="K161" s="47"/>
+      <c r="L161" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19">
+        <v>1</v>
+      </c>
+      <c r="O161" s="19"/>
+      <c r="P161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="60"/>
+      <c r="S161" s="64"/>
+    </row>
+    <row r="162" spans="2:19">
+      <c r="B162" s="5"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="34"/>
+      <c r="F162" s="34"/>
+      <c r="G162" s="34"/>
+      <c r="H162" s="34"/>
+      <c r="I162" s="34"/>
+      <c r="J162" s="34"/>
+      <c r="K162" s="48"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="60"/>
+      <c r="S162" s="63"/>
+    </row>
+    <row r="163" spans="2:19">
+      <c r="B163" s="5"/>
+      <c r="R163" s="60"/>
+      <c r="S163" s="63"/>
+    </row>
+    <row r="164" spans="2:19">
+      <c r="B164" s="5"/>
+      <c r="R164" s="60"/>
+      <c r="S164" s="64"/>
+    </row>
+    <row r="165" spans="2:19">
+      <c r="B165" s="5"/>
+      <c r="R165" s="60"/>
+      <c r="S165" s="64"/>
+    </row>
+    <row r="166" spans="2:19">
+      <c r="B166" s="5"/>
+      <c r="D166" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E166" s="35"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="35"/>
+      <c r="J166" s="35"/>
+      <c r="K166" s="35"/>
+      <c r="L166" s="35"/>
+      <c r="M166" s="35"/>
+      <c r="N166" s="49">
+        <v>2</v>
+      </c>
+      <c r="O166" s="52"/>
+      <c r="P166" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="60"/>
+      <c r="S166" s="64"/>
+    </row>
+    <row r="167" spans="2:19">
+      <c r="B167" s="5"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="36"/>
+      <c r="G167" s="36"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="36"/>
+      <c r="J167" s="36"/>
+      <c r="K167" s="36"/>
+      <c r="L167" s="36"/>
+      <c r="M167" s="36"/>
+      <c r="N167" s="50"/>
+      <c r="O167" s="53"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="60"/>
+      <c r="S167" s="63"/>
+    </row>
+    <row r="168" spans="2:19">
+      <c r="B168" s="5"/>
+      <c r="D168" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E168" s="35"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="35"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="35"/>
+      <c r="J168" s="35"/>
+      <c r="K168" s="35"/>
+      <c r="L168" s="35"/>
+      <c r="M168" s="35"/>
+      <c r="N168" s="49">
+        <v>3</v>
+      </c>
+      <c r="O168" s="52"/>
+      <c r="P168" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="60"/>
+      <c r="S168" s="63"/>
+    </row>
+    <row r="169" spans="2:19">
+      <c r="B169" s="5"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="36"/>
+      <c r="G169" s="36"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="36"/>
+      <c r="J169" s="36"/>
+      <c r="K169" s="36"/>
+      <c r="L169" s="36"/>
+      <c r="M169" s="36"/>
+      <c r="N169" s="50"/>
+      <c r="O169" s="53"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="60"/>
+      <c r="S169" s="64"/>
+    </row>
+    <row r="170" spans="2:19">
+      <c r="B170" s="5"/>
+      <c r="D170" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E170" s="35"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="35"/>
+      <c r="I170" s="35"/>
+      <c r="J170" s="35"/>
+      <c r="K170" s="35"/>
+      <c r="L170" s="35"/>
+      <c r="M170" s="35"/>
+      <c r="N170" s="49">
+        <v>1</v>
+      </c>
+      <c r="O170" s="52"/>
+      <c r="P170" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="60"/>
+      <c r="S170" s="64"/>
+    </row>
+    <row r="171" spans="2:19">
+      <c r="B171" s="5"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="36"/>
+      <c r="H171" s="36"/>
+      <c r="I171" s="36"/>
+      <c r="J171" s="36"/>
+      <c r="K171" s="36"/>
+      <c r="L171" s="36"/>
+      <c r="M171" s="36"/>
+      <c r="N171" s="50"/>
+      <c r="O171" s="53"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="60"/>
+      <c r="S171" s="64"/>
+    </row>
+    <row r="172" spans="2:19">
+      <c r="B172" s="5"/>
+      <c r="D172" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E172" s="35"/>
+      <c r="F172" s="35"/>
+      <c r="G172" s="35"/>
+      <c r="H172" s="35"/>
+      <c r="I172" s="35"/>
+      <c r="J172" s="35"/>
+      <c r="K172" s="35"/>
+      <c r="L172" s="35"/>
+      <c r="M172" s="35"/>
+      <c r="N172" s="49">
+        <v>5</v>
+      </c>
+      <c r="O172" s="52"/>
+      <c r="P172" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="60"/>
+      <c r="S172" s="64"/>
+    </row>
+    <row r="173" spans="2:19">
+      <c r="B173" s="5"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="36"/>
+      <c r="L173" s="36"/>
+      <c r="M173" s="36"/>
+      <c r="N173" s="50"/>
+      <c r="O173" s="53"/>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="3"/>
+      <c r="R173" s="60"/>
+      <c r="S173" s="64"/>
+    </row>
+    <row r="174" spans="2:19">
+      <c r="B174" s="5"/>
+      <c r="D174" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E174" s="35"/>
+      <c r="F174" s="35"/>
+      <c r="G174" s="35"/>
+      <c r="H174" s="35"/>
+      <c r="I174" s="35"/>
+      <c r="J174" s="35"/>
+      <c r="K174" s="35"/>
+      <c r="L174" s="35"/>
+      <c r="M174" s="35"/>
+      <c r="N174" s="49">
+        <v>2</v>
+      </c>
+      <c r="O174" s="52"/>
+      <c r="P174" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="60"/>
+      <c r="S174" s="64"/>
+    </row>
+    <row r="175" spans="2:19">
+      <c r="B175" s="5"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="36"/>
+      <c r="F175" s="36"/>
+      <c r="G175" s="36"/>
+      <c r="H175" s="36"/>
+      <c r="I175" s="36"/>
+      <c r="J175" s="36"/>
+      <c r="K175" s="36"/>
+      <c r="L175" s="36"/>
+      <c r="M175" s="36"/>
+      <c r="N175" s="50"/>
+      <c r="O175" s="53"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+      <c r="R175" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="S175" s="64"/>
+    </row>
+    <row r="176" spans="2:19">
+      <c r="B176" s="5"/>
+      <c r="S176" s="64"/>
+    </row>
+    <row r="177" spans="2:19">
+      <c r="B177" s="5"/>
+      <c r="D177" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3"/>
+      <c r="S177" s="64"/>
+    </row>
+    <row r="178" spans="2:19">
+      <c r="B178" s="5"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3"/>
+      <c r="S178" s="64"/>
+    </row>
+    <row r="179" spans="2:19" ht="13.75">
+      <c r="B179" s="6"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
+      <c r="L179" s="9"/>
+      <c r="M179" s="9"/>
+      <c r="N179" s="9"/>
+      <c r="O179" s="9"/>
+      <c r="P179" s="9"/>
+      <c r="Q179" s="9"/>
+      <c r="R179" s="9"/>
+      <c r="S179" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="206">
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="V42:AC42"/>
+    <mergeCell ref="AD42:AG42"/>
+    <mergeCell ref="AH42:AK42"/>
+    <mergeCell ref="AL42:AO42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="AD43:AG43"/>
+    <mergeCell ref="AH43:AK43"/>
+    <mergeCell ref="AL43:AO43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="AD44:AG44"/>
+    <mergeCell ref="AH44:AK44"/>
+    <mergeCell ref="AL44:AO44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="V45:AC45"/>
+    <mergeCell ref="AD45:AG45"/>
+    <mergeCell ref="AH45:AK45"/>
+    <mergeCell ref="AL45:AO45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:AC46"/>
+    <mergeCell ref="AD46:AG46"/>
+    <mergeCell ref="AH46:AK46"/>
+    <mergeCell ref="AL46:AO46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="L49:Q49"/>
+    <mergeCell ref="R49:W49"/>
+    <mergeCell ref="X49:AC49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="R50:W50"/>
+    <mergeCell ref="X50:AC50"/>
+    <mergeCell ref="AD50:AG50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:K51"/>
+    <mergeCell ref="L51:Q51"/>
+    <mergeCell ref="R51:W51"/>
+    <mergeCell ref="X51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:K52"/>
+    <mergeCell ref="L52:Q52"/>
+    <mergeCell ref="R52:W52"/>
+    <mergeCell ref="X52:AC52"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:K53"/>
+    <mergeCell ref="L53:Q53"/>
+    <mergeCell ref="R53:W53"/>
+    <mergeCell ref="X53:AC53"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="R54:W54"/>
+    <mergeCell ref="X54:AC54"/>
+    <mergeCell ref="AD54:AG54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:K55"/>
+    <mergeCell ref="L55:Q55"/>
+    <mergeCell ref="R55:W55"/>
+    <mergeCell ref="X55:AC55"/>
+    <mergeCell ref="AD55:AG55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:K56"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="R56:W56"/>
+    <mergeCell ref="X56:AC56"/>
+    <mergeCell ref="AD56:AG56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:K57"/>
+    <mergeCell ref="L57:Q57"/>
+    <mergeCell ref="R57:W57"/>
+    <mergeCell ref="X57:AC57"/>
+    <mergeCell ref="AD57:AG57"/>
+    <mergeCell ref="O106:R106"/>
+    <mergeCell ref="S106:Z106"/>
+    <mergeCell ref="AA106:AD106"/>
+    <mergeCell ref="AE106:AH106"/>
+    <mergeCell ref="AI106:AK106"/>
+    <mergeCell ref="O107:R107"/>
+    <mergeCell ref="S107:Z107"/>
+    <mergeCell ref="AA107:AD107"/>
+    <mergeCell ref="AE107:AH107"/>
+    <mergeCell ref="AI107:AK107"/>
+    <mergeCell ref="O108:R108"/>
+    <mergeCell ref="S108:Z108"/>
+    <mergeCell ref="AA108:AD108"/>
+    <mergeCell ref="AE108:AH108"/>
+    <mergeCell ref="AI108:AK108"/>
+    <mergeCell ref="O109:R109"/>
+    <mergeCell ref="S109:Z109"/>
+    <mergeCell ref="AA109:AD109"/>
+    <mergeCell ref="AE109:AH109"/>
+    <mergeCell ref="AI109:AK109"/>
+    <mergeCell ref="O110:R110"/>
+    <mergeCell ref="S110:Z110"/>
+    <mergeCell ref="AA110:AD110"/>
+    <mergeCell ref="AE110:AH110"/>
+    <mergeCell ref="AI110:AK110"/>
+    <mergeCell ref="AC150:AG150"/>
+    <mergeCell ref="AH150:AL150"/>
+    <mergeCell ref="AM150:AQ150"/>
+    <mergeCell ref="AR150:AV150"/>
+    <mergeCell ref="AW150:BA150"/>
+    <mergeCell ref="AC151:AG151"/>
+    <mergeCell ref="AH151:AL151"/>
+    <mergeCell ref="AM151:AQ151"/>
+    <mergeCell ref="AR151:AV151"/>
+    <mergeCell ref="AW151:BA151"/>
+    <mergeCell ref="B3:S5"/>
+    <mergeCell ref="AN3:BE5"/>
+    <mergeCell ref="D7:Q8"/>
+    <mergeCell ref="AP8:BC9"/>
+    <mergeCell ref="D10:O11"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="AP10:BC11"/>
+    <mergeCell ref="D12:O13"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="AP12:AT13"/>
+    <mergeCell ref="AU12:BA13"/>
+    <mergeCell ref="BB12:BC13"/>
+    <mergeCell ref="AP14:AT15"/>
+    <mergeCell ref="AU14:BC15"/>
+    <mergeCell ref="AP16:AT17"/>
+    <mergeCell ref="AU16:BC17"/>
+    <mergeCell ref="AP19:AW20"/>
+    <mergeCell ref="AX19:AY20"/>
+    <mergeCell ref="AZ19:BA20"/>
+    <mergeCell ref="BB19:BC20"/>
+    <mergeCell ref="AP24:AY25"/>
+    <mergeCell ref="AZ24:BA25"/>
+    <mergeCell ref="BB24:BC25"/>
+    <mergeCell ref="D26:I27"/>
+    <mergeCell ref="J26:Q27"/>
+    <mergeCell ref="AP26:AY27"/>
+    <mergeCell ref="AZ26:BA27"/>
+    <mergeCell ref="BB26:BC27"/>
+    <mergeCell ref="D28:I29"/>
+    <mergeCell ref="J28:Q29"/>
+    <mergeCell ref="AP28:AY29"/>
+    <mergeCell ref="AZ28:BA29"/>
+    <mergeCell ref="BB28:BC29"/>
+    <mergeCell ref="D30:I31"/>
+    <mergeCell ref="J30:Q31"/>
+    <mergeCell ref="AP30:AY31"/>
+    <mergeCell ref="AZ30:BA31"/>
+    <mergeCell ref="BB30:BC31"/>
+    <mergeCell ref="AP32:AY33"/>
+    <mergeCell ref="AZ32:BA33"/>
+    <mergeCell ref="BB32:BC33"/>
+    <mergeCell ref="D34:Q35"/>
+    <mergeCell ref="AP35:BC36"/>
+    <mergeCell ref="B65:S67"/>
+    <mergeCell ref="AM65:BD67"/>
+    <mergeCell ref="C69:R70"/>
+    <mergeCell ref="AO69:BB70"/>
+    <mergeCell ref="C72:R73"/>
+    <mergeCell ref="C77:R78"/>
+    <mergeCell ref="C81:R82"/>
+    <mergeCell ref="C96:Q97"/>
+    <mergeCell ref="AN96:BB97"/>
+    <mergeCell ref="B102:S104"/>
+    <mergeCell ref="C127:Q128"/>
+    <mergeCell ref="C137:Q138"/>
+    <mergeCell ref="B145:S147"/>
+    <mergeCell ref="B148:J149"/>
+    <mergeCell ref="K148:S149"/>
+    <mergeCell ref="D150:Q151"/>
+    <mergeCell ref="D152:Q153"/>
+    <mergeCell ref="D154:H155"/>
+    <mergeCell ref="I154:O155"/>
+    <mergeCell ref="P154:Q155"/>
+    <mergeCell ref="D156:H157"/>
+    <mergeCell ref="I156:Q157"/>
+    <mergeCell ref="D158:H159"/>
+    <mergeCell ref="I158:Q159"/>
+    <mergeCell ref="D161:K162"/>
+    <mergeCell ref="L161:M162"/>
+    <mergeCell ref="N161:O162"/>
+    <mergeCell ref="P161:Q162"/>
+    <mergeCell ref="D166:M167"/>
+    <mergeCell ref="N166:O167"/>
+    <mergeCell ref="P166:Q167"/>
+    <mergeCell ref="D168:M169"/>
+    <mergeCell ref="N168:O169"/>
+    <mergeCell ref="P168:Q169"/>
+    <mergeCell ref="D170:M171"/>
+    <mergeCell ref="N170:O171"/>
+    <mergeCell ref="P170:Q171"/>
+    <mergeCell ref="D172:M173"/>
+    <mergeCell ref="N172:O173"/>
+    <mergeCell ref="P172:Q173"/>
+    <mergeCell ref="D174:M175"/>
+    <mergeCell ref="N174:O175"/>
+    <mergeCell ref="P174:Q175"/>
+    <mergeCell ref="D177:Q178"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="Hiragana"/>
+  <pageMargins left="0.78740157480314943" right="0.78740157480314943" top="0.98425196850393681" bottom="0.98425196850393681" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent>
+      <mc:Choice xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" Requires="x14">
+        <oleObject progId="Paint.Picture" shapeId="3074" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>175895</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>43180</xdr:rowOff>
+              </from>
+              <to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+                <xdr:col>35</xdr:col>
+                <xdr:colOff>174625</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>204470</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Paint.Picture" shapeId="3074" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent>
+      <mc:Choice xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" Requires="x14">
+        <oleObject progId="Paint.Picture" shapeId="3075" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+                <xdr:col>35</xdr:col>
+                <xdr:colOff>6985</xdr:colOff>
+                <xdr:row>107</xdr:row>
+                <xdr:rowOff>26035</xdr:rowOff>
+              </from>
+              <to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+                <xdr:col>35</xdr:col>
+                <xdr:colOff>180340</xdr:colOff>
+                <xdr:row>107</xdr:row>
+                <xdr:rowOff>197485</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Paint.Picture" shapeId="3075" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent>
+      <mc:Choice xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" Requires="x14">
+        <oleObject progId="Paint.Picture" shapeId="3076" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+                <xdr:col>35</xdr:col>
+                <xdr:colOff>6985</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>26035</xdr:rowOff>
+              </from>
+              <to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+                <xdr:col>35</xdr:col>
+                <xdr:colOff>180340</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>197485</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Paint.Picture" shapeId="3076" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent>
+      <mc:Choice xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" Requires="x14">
+        <oleObject progId="Paint.Picture" shapeId="3077" r:id="rId9">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+                <xdr:col>35</xdr:col>
+                <xdr:colOff>6985</xdr:colOff>
+                <xdr:row>109</xdr:row>
+                <xdr:rowOff>26035</xdr:rowOff>
+              </from>
+              <to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+                <xdr:col>35</xdr:col>
+                <xdr:colOff>180340</xdr:colOff>
+                <xdr:row>109</xdr:row>
+                <xdr:rowOff>197485</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Paint.Picture" shapeId="3077" r:id="rId9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent>
+      <mc:Choice xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" Requires="x14">
+        <oleObject progId="Paint.Picture" shapeId="3078" r:id="rId10">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>14605</xdr:colOff>
+                <xdr:row>124</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>4445</xdr:colOff>
+                <xdr:row>125</xdr:row>
+                <xdr:rowOff>5715</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Paint.Picture" shapeId="3078" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -6784,7 +11730,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -6792,7 +11738,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -6814,94 +11760,94 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -6909,7 +11855,29 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="Hiragana"/>
+  <pageMargins left="0.78740157480314943" right="0.78740157480314943" top="0.98425196850393681" bottom="0.98425196850393681" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
